--- a/plot/v1-memory-usage-comparison.xlsx
+++ b/plot/v1-memory-usage-comparison.xlsx
@@ -22,10 +22,10 @@
     <t>server</t>
   </si>
   <si>
-    <t>Falcon (Hanin)</t>
-  </si>
-  <si>
-    <t>Sanic (Alvin)</t>
+    <t>Falcon (Hanin 2021)</t>
+  </si>
+  <si>
+    <t>Sanic (Ferdiansyah 2023)</t>
   </si>
   <si>
     <t>Fiber</t>
